--- a/similarities/split_global/harmonic_similarity_timestamps_360.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_360.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,46 +484,56 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'E/G#', 'D#:min/A#'], ['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:03:19.440000', '0:03:22.060000'), ('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:43.640000', '0:00:46.580000'), ('0:01:37.220000', '0:01:50.760000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=199.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=43.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=97.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -532,662 +542,684 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:00.340000', '0:00:03')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:00:45.480000', '0:00:56.600000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=45.48</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['E:7/3', 'A', 'A:min/b3', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:7', 'E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:02.820000'), ('0:00:59.620000', '0:01:04.340000'), ('0:01:10.980000', '0:01:20.440000')]</t>
+          <t>('0:00:21.908049', '0:00:27.840748')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:30.320000'), ('0:01:12.420000', '0:01:15.580000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:04.540000', '0:00:13.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=59.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=21.908049</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=72.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=4.54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:42.120000', '0:04:50.060000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.740000', '0:00:23.800000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=282.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:32.180000', '0:00:34.740000'), ('0:00:08.180000', '0:00:13.260000'), ('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:37.540000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.660000', '0:00:17.100000'), ('0:00:00.780000', '0:00:05.260000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:32.200000', '0:00:36.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=32.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=12.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:52.300000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:22.560000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>isophonics_44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['G:min', 'C:min', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.140000', '0:00:14.340000'), ('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:01.550498', '0:00:05.497891')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+          <t>('0:00:32.257000', '0:00:34.149000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=1.550498</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=32.257</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_84</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj7']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:22.210000', '0:00:25.020000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:22.170000', '0:00:31.310000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=22.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=22.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.060000', '0:00:15.600000')]</t>
+          <t>('0:01:06.100000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=8.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:sus4', 'D', 'G']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:04.928000', '0:00:08.311000')]</t>
+          <t>('0:00:01.480839', '0:00:13.717755')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:20.381882', '0:00:24.259614')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=4.928']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=20.381882']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=62.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C', 'F:min/C', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:32.260000', '0:01:39.020000'), ('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:36.840000', '0:01:43.060000'), ('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:49.480000', '0:00:53.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=92.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=96.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:02.560000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=59.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
